--- a/doc/tables/drop1_table_NCA.xlsx
+++ b/doc/tables/drop1_table_NCA.xlsx
@@ -27,42 +27,9 @@
     <t>pre-STAR_base</t>
   </si>
   <si>
-    <t>no_COM_HKL</t>
-  </si>
-  <si>
-    <t>no_COM_TWL</t>
-  </si>
-  <si>
-    <t>no_COM_NET</t>
-  </si>
-  <si>
-    <t>no_REC_PC</t>
-  </si>
-  <si>
-    <t>no_REC_PC_DIS</t>
-  </si>
-  <si>
-    <t>no_REC_PR</t>
-  </si>
-  <si>
     <t>DWV_ONBOARD</t>
   </si>
   <si>
-    <t>no_NWFSC_TWL</t>
-  </si>
-  <si>
-    <t>no_REC_ONBOARD</t>
-  </si>
-  <si>
-    <t>no_ABRAMS_RESEARCH</t>
-  </si>
-  <si>
-    <t>no_SWFSC_GF_ECOL</t>
-  </si>
-  <si>
-    <t>no_CCFRP</t>
-  </si>
-  <si>
     <t>N.Parms</t>
   </si>
   <si>
@@ -256,6 +223,39 @@
   </si>
   <si>
     <t>OFLCatch_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COM_HKL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COM_TWL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COM_NET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REC_PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REC_PC_DIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REC_PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NWFSC_TWL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REC_ONBOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABRAMS_RESEARCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SWFSC_GF_ECOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CCFRP</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1078,45 +1078,45 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>115</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>910.57100000000003</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>-55.121000000000002</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>370.79199999999997</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>581.64700000000005</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>13.1288</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0.11623799999999999</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>8.8551900000000003E-2</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>7.7863899999999999</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>55.3827</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0.14529600000000001</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>9.6310499999999993E-2</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>7.4967000000000006E-2</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>8.4138900000000003E-2</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>6.0252800000000004</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>49.896000000000001</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0.19878699999999999</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>7.5516E-2</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>6.0719599999999998</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0.18421599999999999</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>46.552700000000002</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>4.6982400000000002</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>48.493600000000001</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>4.2122400000000004</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>42.689300000000003</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>3.2917800000000002</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>0.20095199999999999</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>0.49016100000000001</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>47.122399999999999</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>5.0459800000000001</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>3.9824799999999998</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>18.668399999999998</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>1.7088300000000001</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>4.4965099999999998</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>42.704000000000001</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>4.6350499999999997</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>5.0950800000000003</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>16.3386</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>1.00431</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>-0.18545600000000001</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>39.4572</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>5.1675000000000004</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>4.0386499999999996</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>34.933999999999997</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>34.344299999999997</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>4.2418899999999997</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>4.22037</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>4.39961</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>5.4551499999999997</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>-0.42685899999999999</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>-2.0184000000000002</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>34.433300000000003</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>36.585700000000003</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>4.2653499999999998</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>4.0956700000000001</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>2.6533500000000001</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>5.3764099999999999</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>-0.29017799999999999</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>-1.7458100000000001</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>0.39122800000000002</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>1114.67</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>6264.57</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>433.53100000000001</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>140.88399999999999</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>168.68600000000001</v>
